--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N2">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q2">
-        <v>0.712713364027</v>
+        <v>0.7356939719943334</v>
       </c>
       <c r="R2">
-        <v>4.276280184161999</v>
+        <v>4.414163831966</v>
       </c>
       <c r="S2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="T2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q3">
         <v>3.972457383950223</v>
@@ -641,10 +641,10 @@
         <v>35.752116455552</v>
       </c>
       <c r="S3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="T3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N4">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q4">
-        <v>0.06511789928233333</v>
+        <v>0.02057793919455556</v>
       </c>
       <c r="R4">
-        <v>0.586061093541</v>
+        <v>0.185201452751</v>
       </c>
       <c r="S4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="T4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N5">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q5">
-        <v>3.015038812371833</v>
+        <v>1.454288811735667</v>
       </c>
       <c r="R5">
-        <v>18.090232874231</v>
+        <v>8.725732870413999</v>
       </c>
       <c r="S5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="T5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N6">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q6">
-        <v>0.4569105331808889</v>
+        <v>0.04060697649011112</v>
       </c>
       <c r="R6">
-        <v>4.112194798628</v>
+        <v>0.3654627884110001</v>
       </c>
       <c r="S6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="T6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N7">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q7">
-        <v>0.1019308681097778</v>
+        <v>0.04072704509688889</v>
       </c>
       <c r="R7">
-        <v>0.917377812988</v>
+        <v>0.366543405872</v>
       </c>
       <c r="S7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="T7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
     </row>
   </sheetData>
